--- a/best_models/model_resnet/training_log.xlsx
+++ b/best_models/model_resnet/training_log.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,10 +473,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>16.31147831761746</v>
+        <v>10.19702778339323</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.10546875</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>23.02585092994046</v>
+        <v>2.8545897111533</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.23046875</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -510,13 +510,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>23.02585092994046</v>
+        <v>2.274115709060079</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.24609375</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -530,13 +530,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>22.19119916336706</v>
+        <v>1.955958224218707</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.3359375</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>23.02585092994046</v>
+        <v>2.194322538060676</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.4453125</v>
       </c>
       <c r="E6" t="n">
-        <v>13.58085699643917</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -567,19 +567,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
-        <v>23.02585092994046</v>
+        <v>1.574998708192386</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.4765625</v>
       </c>
       <c r="E7" t="n">
-        <v>13.58085699643917</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -587,19 +587,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="C8" t="n">
-        <v>11.87452668609328</v>
+        <v>1.117253221689764</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0.6328125</v>
       </c>
       <c r="E8" t="n">
-        <v>13.58085699643917</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -607,19 +607,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="C9" t="n">
-        <v>9.030799517246866</v>
+        <v>0.8484945150912466</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.76171875</v>
       </c>
       <c r="E9" t="n">
-        <v>13.58085699643917</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -627,19 +627,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C10" t="n">
-        <v>23.02585092994046</v>
+        <v>0.6995373535244613</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.765625</v>
       </c>
       <c r="E10" t="n">
-        <v>13.58085699643917</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -647,19 +647,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C11" t="n">
-        <v>15.8469594624579</v>
+        <v>0.5657748198046181</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.80078125</v>
       </c>
       <c r="E11" t="n">
-        <v>14.87041646265468</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -667,19 +667,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>4.493016185835742</v>
+        <v>0.4858076685778519</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.84375</v>
       </c>
       <c r="E12" t="n">
-        <v>14.87041646265468</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C13" t="n">
-        <v>6.418733220252974</v>
+        <v>0.377305404745609</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.91015625</v>
       </c>
       <c r="E13" t="n">
-        <v>14.87041646265468</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>23.02585092994046</v>
+        <v>0.4391895229313221</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.859375</v>
       </c>
       <c r="E14" t="n">
-        <v>14.87041646265468</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="C15" t="n">
-        <v>17.69208228121398</v>
+        <v>0.2926185533768197</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="E15" t="n">
-        <v>14.87041646265468</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -747,22 +747,2862 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>140</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.3080101254732225</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.89453125</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>150</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2888147294189408</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.91015625</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>160</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3236278462055082</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8828125</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>170</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3386599327819115</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8828125</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>180</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2602787372983676</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>190</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.2528441102124421</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.94140625</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2341051273974401</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>210</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.172184132481384</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>220</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.242934849892016</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.91015625</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>230</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.242129317539305</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9296875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>240</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.236698194950745</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9296875</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>250</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2202864485215053</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.94140625</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>260</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1475515784526479</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>270</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1818047448469611</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.94140625</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>280</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2611301440750876</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>290</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1348511349918607</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>300</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.09217888112789471</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.96484375</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>310</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.137153472737043</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.94921875</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>320</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1692338133228453</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>330</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.1906029187881536</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>340</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1727503503292742</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.94140625</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>350</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1111403000897554</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="n">
+        <v>360</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.117380427162808</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>370</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.119058202174877</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>380</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.2246741421560127</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>390</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.1630467259250638</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>400</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.1281724789917379</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>410</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1337232658449786</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>420</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.09452919649286097</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>430</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1523987421826076</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="n">
+        <v>440</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1468793733252118</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>450</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.07317177229492387</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>460</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1549525133235589</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.95703125</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>470</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.03455189590772242</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>480</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1024524665263085</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>490</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.05962333950543268</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>500</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.1369976417983251</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>510</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.08749910331832454</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>520</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.1000126534338226</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>530</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1497013095695337</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.9453125</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>540</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.05047828033868683</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.9921875</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>550</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.1480889654454589</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="n">
+        <v>560</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.1648042480634334</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>570</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.04992066326181367</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.98828125</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>580</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.07874327690805516</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.96484375</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>590</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.06659747317423173</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>600</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.04881893172692964</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>610</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1098963135657308</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.96484375</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>620</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1086916514553763</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.94921875</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.1387822530590301</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9577</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
         <v>2</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B65" t="n">
+        <v>630</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.04213981967901997</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.9921875</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>640</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1450453598781124</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.95703125</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>650</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1364930931804666</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.95703125</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>660</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.05498489422981353</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>670</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.08131370726029322</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>680</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1171381474942916</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>690</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1425033305607853</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.96484375</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" t="n">
+        <v>700</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.09494260782788598</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" t="n">
+        <v>710</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.161859362419369</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="n">
+        <v>720</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.06481629412322541</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="n">
+        <v>730</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1229601231313309</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="n">
+        <v>740</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.09177667510672299</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="n">
+        <v>750</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1231195317578756</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" t="n">
+        <v>760</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.110811298426666</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" t="n">
+        <v>770</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.07569243267391682</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="n">
+        <v>780</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.05934651089880877</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>790</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.08834897956014465</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" t="n">
+        <v>800</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.07182744307316165</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="n">
+        <v>810</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.05690118260147586</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.98828125</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" t="n">
+        <v>820</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.05223766377079163</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" t="n">
+        <v>830</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1627333274557617</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.95703125</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>840</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.08463089451222065</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>850</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.06506923522583345</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="n">
+        <v>860</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.06555099336101697</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>870</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.02364108019991347</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.99609375</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="n">
+        <v>880</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.06288160603836186</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" t="n">
+        <v>890</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.05688640441577972</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" t="n">
+        <v>900</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.03712856501456997</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2</v>
+      </c>
+      <c r="B93" t="n">
+        <v>910</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1706696612865766</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.953125</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2</v>
+      </c>
+      <c r="B94" t="n">
+        <v>920</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.04724369319143056</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2</v>
+      </c>
+      <c r="B95" t="n">
+        <v>930</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.06739606741028165</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.07950335611262564</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" t="n">
+        <v>940</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.05971695428222318</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="n">
+        <v>950</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.07807568957890791</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" t="n">
+        <v>960</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.08629589995594052</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" t="n">
+        <v>970</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.05445558185988494</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="n">
+        <v>980</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.1662960073657699</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" t="n">
+        <v>990</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1117716097276789</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.09742020726403487</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.08858155655852427</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.04738567055592854</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9921875</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.06168317392021291</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.03849643176645993</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.03506710994181227</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.06130502573799085</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1070</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.0576434971036719</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.04066551978827994</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.9921875</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.01812310511702916</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.99609375</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.0914500200463873</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.96484375</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0365134255616616</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1120</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.05812257932597982</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.98828125</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.07332143172489231</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.05898745946709229</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.04459765440534604</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.1309727103656797</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.95703125</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.08459688999959179</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.06143482221441726</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1190</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.04724660715354452</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>3</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.0236460333130458</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.99609375</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>3</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.0862159643728671</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.95703125</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>3</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.0851514558080214</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>3</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1230</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.08637769039443183</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>3</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.07190881013072925</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>3</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.05480682439230902</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.98828125</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.06275057712378498</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.9808</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
-        <v>15.82515232550585</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11.5494872405102</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.5</v>
+      <c r="B128" t="n">
+        <v>1260</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.03824610064231194</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.1121124041503372</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1280</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.08966311627141911</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.04009401232987055</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.98828125</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>4</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.04303904504598087</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.98828125</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>4</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1310</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.02696221680677723</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.9921875</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>4</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1320</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.02831286465149873</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>4</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.1268752031454658</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.96484375</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1340</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.05913710647222543</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>4</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.04683146934877409</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>4</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0464465336633665</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.1101690831687368</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.9625</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1380</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.05260525447786316</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.98828125</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1390</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.1418487348104215</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.9609375</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.02601276635700147</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.98828125</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.04238633943104708</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.9921875</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.02211651978325801</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.98828125</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1430</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0834226336329386</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.96875</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>4</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1440</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.04553561933980033</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>4</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.03381874886235905</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>4</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1460</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.07208264431839774</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.06026387306198142</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>4</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1480</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.02477230133614824</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.9921875</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>4</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.1172884798026782</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.95703125</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>4</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.08798256865048952</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.96484375</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>4</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.07138950781440438</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.97265625</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>4</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.07399855765907605</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.98046875</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>4</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.04899042152583624</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>4</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1540</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.03612460105174901</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.99609375</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>4</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.07000523656408884</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.984375</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.9799</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>4</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.09186522642400147</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.9765625</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.06444866755571368</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.9799</v>
       </c>
     </row>
   </sheetData>
